--- a/Mammal_requirements.xlsx
+++ b/Mammal_requirements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elinfalla/Dropbox/2020-21/_Imperial_MSc/_Project/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18274077-389E-0447-BD58-8D19BF60B834}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1FB7C7-9232-A14F-9992-7670BAF82671}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-1580" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="143">
   <si>
     <t>Species</t>
   </si>
@@ -460,6 +460,9 @@
   </si>
   <si>
     <t>Nesting habitat</t>
+  </si>
+  <si>
+    <t>Species_latin</t>
   </si>
 </sst>
 </file>
@@ -585,6 +588,15 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -595,15 +607,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -948,7 +951,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -984,76 +987,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="18" t="s">
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="19" t="s">
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="19"/>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="19"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="24" t="s">
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="23" t="s">
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="24" t="s">
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
       <c r="Z2" s="7" t="s">
         <v>126</v>
       </c>
@@ -1066,29 +1069,29 @@
       <c r="AC2" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="AD2" s="20" t="s">
+      <c r="AD2" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="AE2" s="20"/>
-      <c r="AF2" s="21" t="s">
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="20" t="s">
+      <c r="AG2" s="24"/>
+      <c r="AH2" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="AI2" s="20"/>
-      <c r="AJ2" s="21" t="s">
+      <c r="AI2" s="23"/>
+      <c r="AJ2" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="AK2" s="21"/>
+      <c r="AK2" s="24"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>89</v>
@@ -6214,17 +6217,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="E1:Y1"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="J2:N2"/>
-    <mergeCell ref="O2:S2"/>
-    <mergeCell ref="T2:Y2"/>
     <mergeCell ref="Z1:AC1"/>
     <mergeCell ref="AD1:AK1"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="E1:Y1"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="J2:N2"/>
+    <mergeCell ref="O2:S2"/>
+    <mergeCell ref="T2:Y2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Mammal_requirements.xlsx
+++ b/Mammal_requirements.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elinfalla/Dropbox/2020-21/_Imperial_MSc/_Project/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1FB7C7-9232-A14F-9992-7670BAF82671}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84FC972-5CA4-2542-91E5-9F741DB72072}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="KEY" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$3:$AK$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$3:$AP$47</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="149">
   <si>
     <t>Species</t>
   </si>
@@ -463,6 +463,24 @@
   </si>
   <si>
     <t>Species_latin</t>
+  </si>
+  <si>
+    <t>diet_start</t>
+  </si>
+  <si>
+    <t>diet_end</t>
+  </si>
+  <si>
+    <t>hab_start</t>
+  </si>
+  <si>
+    <t>hab_end</t>
+  </si>
+  <si>
+    <t>nest_start</t>
+  </si>
+  <si>
+    <t>nest_end</t>
   </si>
 </sst>
 </file>
@@ -484,7 +502,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -545,6 +563,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -567,7 +591,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -588,15 +612,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -609,6 +624,23 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -947,11 +979,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK47"/>
+  <dimension ref="A1:AQ47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="AN13" sqref="AN13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -960,133 +992,143 @@
     <col min="2" max="2" width="27.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="7.6640625" customWidth="1"/>
-    <col min="29" max="29" width="7.6640625" style="12" customWidth="1"/>
-    <col min="30" max="30" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="25" customWidth="1"/>
+    <col min="6" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="7.6640625" style="25" customWidth="1"/>
+    <col min="29" max="31" width="7.6640625" customWidth="1"/>
+    <col min="32" max="32" width="7.6640625" style="12" customWidth="1"/>
+    <col min="33" max="34" width="7.6640625" style="25" customWidth="1"/>
+    <col min="35" max="35" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="10.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="8.83203125" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="E1" s="18" t="s">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="F1" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="21" t="s">
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="22" t="s">
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="E2" s="19" t="s">
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="19"/>
+      <c r="AM1" s="19"/>
+      <c r="AN1" s="19"/>
+      <c r="AO1" s="19"/>
+      <c r="AP1" s="19"/>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="F2" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="20" t="s">
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="19" t="s">
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="20" t="s">
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="7" t="s">
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="AD2" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AE2" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="AC2" s="16" t="s">
+      <c r="AF2" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="AD2" s="23" t="s">
+      <c r="AI2" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="24" t="s">
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="23" t="s">
+      <c r="AL2" s="21"/>
+      <c r="AM2" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="AI2" s="23"/>
-      <c r="AJ2" s="24" t="s">
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="AK2" s="24"/>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AP2" s="21"/>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1099,107 +1141,125 @@
       <c r="D3" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="J3" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="L3" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="N3" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="O3" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="P3" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="R3" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="S3" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="T3" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="U3" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="U3" s="6" t="s">
+      <c r="V3" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="V3" s="6" t="s">
+      <c r="W3" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="W3" s="6" t="s">
+      <c r="X3" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="X3" s="6" t="s">
+      <c r="Y3" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="Y3" s="13" t="s">
+      <c r="Z3" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="Z3" s="7" t="s">
+      <c r="AA3" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB3" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC3" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="AA3" s="8" t="s">
+      <c r="AD3" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="AB3" s="7" t="s">
+      <c r="AE3" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="AC3" s="16" t="s">
+      <c r="AF3" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="AD3" s="9" t="s">
+      <c r="AG3" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH3" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI3" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="AE3" s="14" t="s">
+      <c r="AJ3" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="AF3" s="10" t="s">
+      <c r="AK3" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="AG3" s="15" t="s">
+      <c r="AL3" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="AH3" s="9" t="s">
+      <c r="AM3" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AI3" s="14" t="s">
+      <c r="AN3" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="AJ3" s="10" t="s">
+      <c r="AO3" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="AK3" s="10" t="s">
+      <c r="AP3" s="10" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AQ3" s="28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1210,12 +1270,9 @@
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <f>SUM(E4:AK4)</f>
+        <f>SUM(F4:AP4)</f>
         <v>21</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
       <c r="F4">
         <v>1</v>
       </c>
@@ -1225,10 +1282,10 @@
       <c r="H4">
         <v>1</v>
       </c>
-      <c r="I4" s="12">
-        <v>1</v>
-      </c>
-      <c r="J4">
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="12">
         <v>1</v>
       </c>
       <c r="K4">
@@ -1240,10 +1297,10 @@
       <c r="M4">
         <v>1</v>
       </c>
-      <c r="N4" s="12">
-        <v>1</v>
-      </c>
-      <c r="O4">
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4" s="12">
         <v>1</v>
       </c>
       <c r="P4">
@@ -1255,11 +1312,11 @@
       <c r="R4">
         <v>1</v>
       </c>
-      <c r="S4" s="12">
-        <v>1</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4" s="12">
+        <v>1</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -1273,47 +1330,50 @@
       <c r="X4">
         <v>0</v>
       </c>
-      <c r="Y4" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="17">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="12">
-        <v>1</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="12">
-        <v>1</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="12">
-        <v>1</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="12">
+        <v>1</v>
       </c>
       <c r="AK4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL4" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1324,55 +1384,52 @@
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:D47" si="0">SUM(E5:AK5)</f>
+        <f t="shared" ref="D5:D47" si="0">SUM(F5:AP5)</f>
         <v>11</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
-      <c r="I5" s="12">
-        <v>0</v>
-      </c>
-      <c r="J5">
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="12">
         <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>1</v>
       </c>
-      <c r="N5" s="12">
-        <v>0</v>
-      </c>
-      <c r="O5">
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5" s="12">
         <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5">
         <v>1</v>
       </c>
-      <c r="S5" s="12">
-        <v>0</v>
-      </c>
-      <c r="T5">
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5" s="12">
         <v>0</v>
       </c>
       <c r="U5">
@@ -1387,47 +1444,50 @@
       <c r="X5">
         <v>0</v>
       </c>
-      <c r="Y5" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="17">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="12">
-        <v>1</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="12">
-        <v>1</v>
-      </c>
-      <c r="AJ5">
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="12">
         <v>0</v>
       </c>
       <c r="AK5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL5" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1441,59 +1501,56 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6" s="12">
-        <v>0</v>
-      </c>
-      <c r="J6">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="12">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-      <c r="N6" s="12">
-        <v>0</v>
-      </c>
-      <c r="O6">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="12">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
-      <c r="S6" s="12">
-        <v>0</v>
-      </c>
-      <c r="T6">
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6" s="12">
         <v>0</v>
       </c>
       <c r="U6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -1501,47 +1558,50 @@
       <c r="X6">
         <v>0</v>
       </c>
-      <c r="Y6" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="17">
-        <v>1</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>1</v>
-      </c>
-      <c r="AI6" s="12">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="17">
+        <v>1</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="12">
         <v>0</v>
       </c>
       <c r="AK6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL6" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1555,59 +1615,56 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7" s="12">
-        <v>0</v>
-      </c>
-      <c r="J7">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="12">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-      <c r="N7" s="12">
-        <v>0</v>
-      </c>
-      <c r="O7">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="12">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
-      <c r="S7" s="12">
-        <v>0</v>
-      </c>
-      <c r="T7">
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7" s="12">
         <v>0</v>
       </c>
       <c r="U7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -1615,47 +1672,50 @@
       <c r="X7">
         <v>0</v>
       </c>
-      <c r="Y7" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="17">
-        <v>1</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <v>1</v>
-      </c>
-      <c r="AI7" s="12">
-        <v>0</v>
-      </c>
-      <c r="AJ7">
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="17">
+        <v>1</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="12">
         <v>0</v>
       </c>
       <c r="AK7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1669,59 +1729,56 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8" s="12">
-        <v>0</v>
-      </c>
-      <c r="J8">
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="12">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-      <c r="N8" s="12">
-        <v>0</v>
-      </c>
-      <c r="O8">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8" s="12">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
-      <c r="S8" s="12">
-        <v>0</v>
-      </c>
-      <c r="T8">
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8" s="12">
         <v>0</v>
       </c>
       <c r="U8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8">
         <v>0</v>
@@ -1729,47 +1786,50 @@
       <c r="X8">
         <v>0</v>
       </c>
-      <c r="Y8" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="17">
-        <v>1</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>1</v>
-      </c>
-      <c r="AI8" s="12">
-        <v>0</v>
-      </c>
-      <c r="AJ8">
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="17">
+        <v>1</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="12">
         <v>0</v>
       </c>
       <c r="AK8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1783,9 +1843,6 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
       <c r="F9">
         <v>0</v>
       </c>
@@ -1793,12 +1850,12 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9" s="12">
-        <v>0</v>
-      </c>
-      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="12">
         <v>0</v>
       </c>
       <c r="K9">
@@ -1808,12 +1865,12 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9" s="12">
-        <v>0</v>
-      </c>
-      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9" s="12">
         <v>0</v>
       </c>
       <c r="P9">
@@ -1823,12 +1880,12 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>1</v>
-      </c>
-      <c r="S9" s="12">
-        <v>0</v>
-      </c>
-      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9" s="12">
         <v>0</v>
       </c>
       <c r="U9">
@@ -1843,47 +1900,50 @@
       <c r="X9">
         <v>0</v>
       </c>
-      <c r="Y9" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC9" s="17">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>1</v>
-      </c>
-      <c r="AE9" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <v>1</v>
-      </c>
-      <c r="AG9" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH9">
-        <v>1</v>
-      </c>
-      <c r="AI9" s="12">
-        <v>0</v>
-      </c>
-      <c r="AJ9">
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="12">
         <v>0</v>
       </c>
       <c r="AK9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="AL9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>1</v>
+      </c>
+      <c r="AN9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1897,59 +1957,56 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10" s="12">
-        <v>0</v>
-      </c>
-      <c r="J10">
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="12">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-      <c r="N10" s="12">
-        <v>0</v>
-      </c>
-      <c r="O10">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10" s="12">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
-      <c r="S10" s="12">
-        <v>0</v>
-      </c>
-      <c r="T10">
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10" s="12">
         <v>0</v>
       </c>
       <c r="U10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10">
         <v>0</v>
@@ -1957,47 +2014,50 @@
       <c r="X10">
         <v>0</v>
       </c>
-      <c r="Y10" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA10" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC10" s="17">
-        <v>1</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>1</v>
-      </c>
-      <c r="AI10" s="12">
-        <v>0</v>
-      </c>
-      <c r="AJ10">
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="17">
+        <v>1</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="12">
         <v>0</v>
       </c>
       <c r="AK10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>1</v>
+      </c>
+      <c r="AN10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -2011,9 +2071,6 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
       <c r="F11">
         <v>1</v>
       </c>
@@ -2023,10 +2080,10 @@
       <c r="H11">
         <v>1</v>
       </c>
-      <c r="I11" s="12">
-        <v>1</v>
-      </c>
-      <c r="J11">
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" s="12">
         <v>1</v>
       </c>
       <c r="K11">
@@ -2038,10 +2095,10 @@
       <c r="M11">
         <v>1</v>
       </c>
-      <c r="N11" s="12">
-        <v>1</v>
-      </c>
-      <c r="O11">
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11" s="12">
         <v>1</v>
       </c>
       <c r="P11">
@@ -2053,10 +2110,10 @@
       <c r="R11">
         <v>1</v>
       </c>
-      <c r="S11" s="12">
-        <v>1</v>
-      </c>
-      <c r="T11">
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11" s="12">
         <v>1</v>
       </c>
       <c r="U11">
@@ -2071,47 +2128,50 @@
       <c r="X11">
         <v>1</v>
       </c>
-      <c r="Y11" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA11" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC11" s="17">
-        <v>1</v>
-      </c>
-      <c r="AD11">
-        <v>1</v>
-      </c>
-      <c r="AE11" s="12">
-        <v>1</v>
-      </c>
-      <c r="AF11">
-        <v>1</v>
-      </c>
-      <c r="AG11" s="12">
-        <v>1</v>
-      </c>
-      <c r="AH11">
-        <v>1</v>
-      </c>
-      <c r="AI11" s="12">
-        <v>1</v>
-      </c>
-      <c r="AJ11">
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="17">
+        <v>1</v>
+      </c>
+      <c r="AI11">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="12">
         <v>1</v>
       </c>
       <c r="AK11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL11" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM11">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO11">
+        <v>1</v>
+      </c>
+      <c r="AP11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -2125,9 +2185,6 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
       <c r="F12">
         <v>0</v>
       </c>
@@ -2135,12 +2192,12 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12" s="12">
-        <v>0</v>
-      </c>
-      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" s="12">
         <v>0</v>
       </c>
       <c r="K12">
@@ -2150,12 +2207,12 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12" s="12">
-        <v>0</v>
-      </c>
-      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12" s="12">
         <v>0</v>
       </c>
       <c r="P12">
@@ -2165,12 +2222,12 @@
         <v>0</v>
       </c>
       <c r="R12">
-        <v>1</v>
-      </c>
-      <c r="S12" s="12">
-        <v>0</v>
-      </c>
-      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12" s="12">
         <v>0</v>
       </c>
       <c r="U12">
@@ -2180,52 +2237,55 @@
         <v>0</v>
       </c>
       <c r="W12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC12" s="17">
-        <v>1</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH12">
-        <v>1</v>
-      </c>
-      <c r="AI12" s="12">
-        <v>0</v>
-      </c>
-      <c r="AJ12">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="17">
+        <v>1</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="12">
+        <v>0</v>
       </c>
       <c r="AK12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>1</v>
+      </c>
+      <c r="AN12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>1</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -2239,9 +2299,6 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
       <c r="F13">
         <v>0</v>
       </c>
@@ -2251,10 +2308,10 @@
       <c r="H13">
         <v>0</v>
       </c>
-      <c r="I13" s="12">
-        <v>0</v>
-      </c>
-      <c r="J13">
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" s="12">
         <v>0</v>
       </c>
       <c r="K13">
@@ -2266,14 +2323,14 @@
       <c r="M13">
         <v>0</v>
       </c>
-      <c r="N13" s="12">
-        <v>0</v>
-      </c>
-      <c r="O13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13" s="12">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>1</v>
@@ -2281,10 +2338,10 @@
       <c r="R13">
         <v>1</v>
       </c>
-      <c r="S13" s="12">
-        <v>0</v>
-      </c>
-      <c r="T13">
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13" s="12">
         <v>0</v>
       </c>
       <c r="U13">
@@ -2299,47 +2356,50 @@
       <c r="X13">
         <v>0</v>
       </c>
-      <c r="Y13" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC13" s="17">
-        <v>0</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH13">
-        <v>1</v>
-      </c>
-      <c r="AI13" s="12">
-        <v>1</v>
-      </c>
-      <c r="AJ13">
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="12">
         <v>0</v>
       </c>
       <c r="AK13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>1</v>
+      </c>
+      <c r="AN13" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -2353,52 +2413,49 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
-      <c r="I14" s="12">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" s="12">
+        <v>0</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-      <c r="N14" s="12">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>1</v>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14" s="12">
+        <v>0</v>
       </c>
       <c r="P14">
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
-      <c r="S14" s="12">
-        <v>0</v>
-      </c>
-      <c r="T14">
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14" s="12">
         <v>0</v>
       </c>
       <c r="U14">
@@ -2413,47 +2470,50 @@
       <c r="X14">
         <v>0</v>
       </c>
-      <c r="Y14" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA14" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB14" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC14" s="17">
-        <v>0</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="12">
-        <v>1</v>
-      </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="12">
-        <v>1</v>
-      </c>
-      <c r="AH14">
-        <v>0</v>
-      </c>
-      <c r="AI14" s="12">
-        <v>1</v>
-      </c>
-      <c r="AJ14">
-        <v>0</v>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="12">
+        <v>1</v>
       </c>
       <c r="AK14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL14" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -2467,52 +2527,49 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
-      <c r="I15" s="12">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15" s="12">
+        <v>0</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-      <c r="N15" s="12">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>1</v>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15" s="12">
+        <v>0</v>
       </c>
       <c r="P15">
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
-      <c r="S15" s="12">
-        <v>0</v>
-      </c>
-      <c r="T15">
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15" s="12">
         <v>0</v>
       </c>
       <c r="U15">
@@ -2527,47 +2584,50 @@
       <c r="X15">
         <v>0</v>
       </c>
-      <c r="Y15" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA15" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB15" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC15" s="17">
-        <v>0</v>
-      </c>
-      <c r="AD15">
-        <v>1</v>
-      </c>
-      <c r="AE15" s="12">
-        <v>1</v>
-      </c>
-      <c r="AF15">
-        <v>1</v>
-      </c>
-      <c r="AG15" s="12">
-        <v>1</v>
-      </c>
-      <c r="AH15">
-        <v>1</v>
-      </c>
-      <c r="AI15" s="12">
-        <v>1</v>
-      </c>
-      <c r="AJ15">
-        <v>0</v>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF15" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>1</v>
+      </c>
+      <c r="AJ15" s="12">
+        <v>1</v>
       </c>
       <c r="AK15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="AL15" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM15">
+        <v>1</v>
+      </c>
+      <c r="AN15" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -2581,59 +2641,56 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
       <c r="F16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
-      <c r="I16" s="12">
-        <v>0</v>
-      </c>
-      <c r="J16">
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16" s="12">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-      <c r="N16" s="12">
-        <v>0</v>
-      </c>
-      <c r="O16">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16" s="12">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
-      <c r="S16" s="12">
-        <v>0</v>
-      </c>
-      <c r="T16">
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16" s="12">
         <v>0</v>
       </c>
       <c r="U16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W16">
         <v>0</v>
@@ -2641,47 +2698,50 @@
       <c r="X16">
         <v>0</v>
       </c>
-      <c r="Y16" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA16" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB16" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC16" s="17">
-        <v>1</v>
-      </c>
-      <c r="AD16">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH16">
-        <v>1</v>
-      </c>
-      <c r="AI16" s="12">
-        <v>0</v>
-      </c>
-      <c r="AJ16">
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF16" s="17">
+        <v>1</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="12">
         <v>0</v>
       </c>
       <c r="AK16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>1</v>
+      </c>
+      <c r="AN16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -2695,9 +2755,6 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
       <c r="F17">
         <v>0</v>
       </c>
@@ -2705,12 +2762,12 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17" s="12">
-        <v>0</v>
-      </c>
-      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" s="12">
         <v>0</v>
       </c>
       <c r="K17">
@@ -2720,12 +2777,12 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1</v>
-      </c>
-      <c r="N17" s="12">
-        <v>0</v>
-      </c>
-      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17" s="12">
         <v>0</v>
       </c>
       <c r="P17">
@@ -2735,12 +2792,12 @@
         <v>0</v>
       </c>
       <c r="R17">
-        <v>1</v>
-      </c>
-      <c r="S17" s="12">
-        <v>0</v>
-      </c>
-      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17" s="12">
         <v>0</v>
       </c>
       <c r="U17">
@@ -2755,47 +2812,50 @@
       <c r="X17">
         <v>0</v>
       </c>
-      <c r="Y17" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA17" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB17" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC17" s="17">
-        <v>0</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF17">
-        <v>0</v>
-      </c>
-      <c r="AG17" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH17">
-        <v>0</v>
-      </c>
-      <c r="AI17" s="12">
-        <v>0</v>
-      </c>
-      <c r="AJ17">
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF17" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="12">
         <v>0</v>
       </c>
       <c r="AK17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL17" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
@@ -2809,9 +2869,6 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
       <c r="F18">
         <v>0</v>
       </c>
@@ -2819,12 +2876,12 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18" s="12">
-        <v>0</v>
-      </c>
-      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18" s="12">
         <v>0</v>
       </c>
       <c r="K18">
@@ -2834,12 +2891,12 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="N18" s="12">
-        <v>0</v>
-      </c>
-      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18" s="12">
         <v>0</v>
       </c>
       <c r="P18">
@@ -2849,12 +2906,12 @@
         <v>0</v>
       </c>
       <c r="R18">
-        <v>1</v>
-      </c>
-      <c r="S18" s="12">
-        <v>0</v>
-      </c>
-      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18" s="12">
         <v>0</v>
       </c>
       <c r="U18">
@@ -2869,47 +2926,50 @@
       <c r="X18">
         <v>0</v>
       </c>
-      <c r="Y18" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA18" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB18" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC18" s="17">
-        <v>0</v>
-      </c>
-      <c r="AD18">
-        <v>1</v>
-      </c>
-      <c r="AE18" s="12">
-        <v>1</v>
-      </c>
-      <c r="AF18">
-        <v>1</v>
-      </c>
-      <c r="AG18" s="12">
-        <v>1</v>
-      </c>
-      <c r="AH18">
-        <v>1</v>
-      </c>
-      <c r="AI18" s="12">
-        <v>1</v>
-      </c>
-      <c r="AJ18">
-        <v>0</v>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF18" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>1</v>
+      </c>
+      <c r="AJ18" s="12">
+        <v>1</v>
       </c>
       <c r="AK18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="AL18" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM18">
+        <v>1</v>
+      </c>
+      <c r="AN18" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
@@ -2923,59 +2983,56 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
       <c r="F19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
-      <c r="I19" s="12">
-        <v>0</v>
-      </c>
-      <c r="J19">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19" s="12">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-      <c r="N19" s="12">
-        <v>0</v>
-      </c>
-      <c r="O19">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19" s="12">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
-      <c r="S19" s="12">
-        <v>0</v>
-      </c>
-      <c r="T19">
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19" s="12">
         <v>0</v>
       </c>
       <c r="U19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19">
         <v>0</v>
@@ -2983,47 +3040,50 @@
       <c r="X19">
         <v>0</v>
       </c>
-      <c r="Y19" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA19" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB19" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC19" s="17">
-        <v>1</v>
-      </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF19">
-        <v>0</v>
-      </c>
-      <c r="AG19" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH19">
-        <v>0</v>
-      </c>
-      <c r="AI19" s="12">
-        <v>0</v>
-      </c>
-      <c r="AJ19">
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF19" s="17">
+        <v>1</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="12">
         <v>0</v>
       </c>
       <c r="AK19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
@@ -3037,59 +3097,56 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
       <c r="F20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
-      <c r="I20" s="12">
-        <v>0</v>
-      </c>
-      <c r="J20">
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20" s="12">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-      <c r="N20" s="12">
-        <v>0</v>
-      </c>
-      <c r="O20">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20" s="12">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
-      <c r="S20" s="12">
-        <v>0</v>
-      </c>
-      <c r="T20">
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20" s="12">
         <v>0</v>
       </c>
       <c r="U20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20">
         <v>0</v>
@@ -3097,47 +3154,50 @@
       <c r="X20">
         <v>0</v>
       </c>
-      <c r="Y20" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA20" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB20" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC20" s="17">
-        <v>1</v>
-      </c>
-      <c r="AD20">
-        <v>0</v>
-      </c>
-      <c r="AE20" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF20">
-        <v>0</v>
-      </c>
-      <c r="AG20" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH20">
-        <v>1</v>
-      </c>
-      <c r="AI20" s="12">
-        <v>0</v>
-      </c>
-      <c r="AJ20">
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF20" s="17">
+        <v>1</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="12">
         <v>0</v>
       </c>
       <c r="AK20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>1</v>
+      </c>
+      <c r="AN20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
@@ -3151,11 +3211,8 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
       <c r="F21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -3163,14 +3220,14 @@
       <c r="H21">
         <v>1</v>
       </c>
-      <c r="I21" s="12">
-        <v>0</v>
-      </c>
-      <c r="J21">
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21" s="12">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -3178,14 +3235,14 @@
       <c r="M21">
         <v>1</v>
       </c>
-      <c r="N21" s="12">
-        <v>0</v>
-      </c>
-      <c r="O21">
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21" s="12">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>1</v>
@@ -3193,14 +3250,14 @@
       <c r="R21">
         <v>1</v>
       </c>
-      <c r="S21" s="12">
-        <v>0</v>
-      </c>
-      <c r="T21">
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21" s="12">
         <v>0</v>
       </c>
       <c r="U21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21">
         <v>1</v>
@@ -3209,49 +3266,52 @@
         <v>1</v>
       </c>
       <c r="X21">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA21" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB21" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC21" s="17">
-        <v>1</v>
-      </c>
-      <c r="AD21">
-        <v>1</v>
-      </c>
-      <c r="AE21" s="12">
-        <v>1</v>
-      </c>
-      <c r="AF21">
-        <v>1</v>
-      </c>
-      <c r="AG21" s="12">
-        <v>1</v>
-      </c>
-      <c r="AH21">
-        <v>1</v>
-      </c>
-      <c r="AI21" s="12">
-        <v>1</v>
-      </c>
-      <c r="AJ21">
+        <v>1</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF21" s="17">
+        <v>1</v>
+      </c>
+      <c r="AI21">
+        <v>1</v>
+      </c>
+      <c r="AJ21" s="12">
         <v>1</v>
       </c>
       <c r="AK21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL21" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM21">
+        <v>1</v>
+      </c>
+      <c r="AN21" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO21">
+        <v>1</v>
+      </c>
+      <c r="AP21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
@@ -3265,53 +3325,50 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22" s="12">
-        <v>1</v>
-      </c>
-      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22" s="12">
         <v>1</v>
       </c>
       <c r="K22">
         <v>1</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>1</v>
-      </c>
-      <c r="N22" s="12">
-        <v>1</v>
-      </c>
-      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22" s="12">
         <v>1</v>
       </c>
       <c r="P22">
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22">
-        <v>1</v>
-      </c>
-      <c r="S22" s="12">
-        <v>1</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22" s="12">
+        <v>1</v>
       </c>
       <c r="U22">
         <v>0</v>
@@ -3325,47 +3382,50 @@
       <c r="X22">
         <v>0</v>
       </c>
-      <c r="Y22" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA22" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB22" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC22" s="17">
-        <v>0</v>
-      </c>
-      <c r="AD22">
-        <v>0</v>
-      </c>
-      <c r="AE22" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF22">
-        <v>1</v>
-      </c>
-      <c r="AG22" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH22">
-        <v>1</v>
-      </c>
-      <c r="AI22" s="12">
-        <v>0</v>
-      </c>
-      <c r="AJ22">
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF22" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="12">
         <v>0</v>
       </c>
       <c r="AK22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="AL22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>1</v>
+      </c>
+      <c r="AN22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
@@ -3379,9 +3439,6 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
       <c r="F23">
         <v>1</v>
       </c>
@@ -3391,11 +3448,11 @@
       <c r="H23">
         <v>1</v>
       </c>
-      <c r="I23" s="12">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23" s="12">
+        <v>0</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -3406,11 +3463,11 @@
       <c r="M23">
         <v>1</v>
       </c>
-      <c r="N23" s="12">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>1</v>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23" s="12">
+        <v>0</v>
       </c>
       <c r="P23">
         <v>1</v>
@@ -3421,10 +3478,10 @@
       <c r="R23">
         <v>1</v>
       </c>
-      <c r="S23" s="12">
-        <v>0</v>
-      </c>
-      <c r="T23">
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23" s="12">
         <v>0</v>
       </c>
       <c r="U23">
@@ -3439,47 +3496,50 @@
       <c r="X23">
         <v>0</v>
       </c>
-      <c r="Y23" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA23" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB23" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC23" s="17">
-        <v>0</v>
-      </c>
-      <c r="AD23">
-        <v>1</v>
-      </c>
-      <c r="AE23" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF23">
-        <v>1</v>
-      </c>
-      <c r="AG23" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH23">
-        <v>1</v>
-      </c>
-      <c r="AI23" s="12">
-        <v>0</v>
-      </c>
-      <c r="AJ23">
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF23" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>1</v>
+      </c>
+      <c r="AJ23" s="12">
         <v>0</v>
       </c>
       <c r="AK23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="AL23" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>1</v>
+      </c>
+      <c r="AN23" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>41</v>
       </c>
@@ -3493,59 +3553,56 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
-      <c r="I24" s="12">
-        <v>0</v>
-      </c>
-      <c r="J24">
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24" s="12">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-      <c r="N24" s="12">
-        <v>0</v>
-      </c>
-      <c r="O24">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24" s="12">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24">
         <v>0</v>
       </c>
-      <c r="S24" s="12">
-        <v>0</v>
-      </c>
-      <c r="T24">
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24" s="12">
         <v>0</v>
       </c>
       <c r="U24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W24">
         <v>0</v>
@@ -3553,47 +3610,50 @@
       <c r="X24">
         <v>0</v>
       </c>
-      <c r="Y24" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA24" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB24" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC24" s="17">
-        <v>1</v>
-      </c>
-      <c r="AD24">
-        <v>0</v>
-      </c>
-      <c r="AE24" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF24">
-        <v>0</v>
-      </c>
-      <c r="AG24" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH24">
-        <v>1</v>
-      </c>
-      <c r="AI24" s="12">
-        <v>0</v>
-      </c>
-      <c r="AJ24">
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF24" s="17">
+        <v>1</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="12">
         <v>0</v>
       </c>
       <c r="AK24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL24" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <v>1</v>
+      </c>
+      <c r="AN24" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>43</v>
       </c>
@@ -3607,59 +3667,56 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
       <c r="F25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
-      <c r="I25" s="12">
-        <v>0</v>
-      </c>
-      <c r="J25">
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25" s="12">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
-      <c r="N25" s="12">
-        <v>0</v>
-      </c>
-      <c r="O25">
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25" s="12">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25">
         <v>0</v>
       </c>
-      <c r="S25" s="12">
-        <v>0</v>
-      </c>
-      <c r="T25">
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25" s="12">
         <v>0</v>
       </c>
       <c r="U25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W25">
         <v>0</v>
@@ -3667,47 +3724,50 @@
       <c r="X25">
         <v>0</v>
       </c>
-      <c r="Y25" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA25" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB25" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC25" s="17">
-        <v>1</v>
-      </c>
-      <c r="AD25">
-        <v>0</v>
-      </c>
-      <c r="AE25" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF25">
-        <v>0</v>
-      </c>
-      <c r="AG25" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH25">
-        <v>0</v>
-      </c>
-      <c r="AI25" s="12">
-        <v>0</v>
-      </c>
-      <c r="AJ25">
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF25" s="17">
+        <v>1</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="12">
         <v>0</v>
       </c>
       <c r="AK25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL25" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
+      <c r="AP25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>45</v>
       </c>
@@ -3721,9 +3781,6 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
       <c r="F26">
         <v>0</v>
       </c>
@@ -3731,12 +3788,12 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26" s="12">
-        <v>0</v>
-      </c>
-      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26" s="12">
         <v>0</v>
       </c>
       <c r="K26">
@@ -3746,12 +3803,12 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>1</v>
-      </c>
-      <c r="N26" s="12">
-        <v>0</v>
-      </c>
-      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26" s="12">
         <v>0</v>
       </c>
       <c r="P26">
@@ -3761,12 +3818,12 @@
         <v>0</v>
       </c>
       <c r="R26">
-        <v>1</v>
-      </c>
-      <c r="S26" s="12">
-        <v>0</v>
-      </c>
-      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26" s="12">
         <v>0</v>
       </c>
       <c r="U26">
@@ -3781,47 +3838,50 @@
       <c r="X26">
         <v>0</v>
       </c>
-      <c r="Y26" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA26" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB26" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC26" s="17">
-        <v>0</v>
-      </c>
-      <c r="AD26">
-        <v>0</v>
-      </c>
-      <c r="AE26" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF26">
-        <v>0</v>
-      </c>
-      <c r="AG26" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH26">
-        <v>1</v>
-      </c>
-      <c r="AI26" s="12">
-        <v>0</v>
-      </c>
-      <c r="AJ26">
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD26" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE26" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF26" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="12">
         <v>0</v>
       </c>
       <c r="AK26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL26" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM26">
+        <v>1</v>
+      </c>
+      <c r="AN26" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>47</v>
       </c>
@@ -3835,59 +3895,56 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
       <c r="F27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
-      <c r="I27" s="12">
-        <v>0</v>
-      </c>
-      <c r="J27">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27" s="12">
         <v>0</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
-      <c r="N27" s="12">
-        <v>0</v>
-      </c>
-      <c r="O27">
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27" s="12">
         <v>0</v>
       </c>
       <c r="P27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27">
         <v>0</v>
       </c>
-      <c r="S27" s="12">
-        <v>0</v>
-      </c>
-      <c r="T27">
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27" s="12">
         <v>0</v>
       </c>
       <c r="U27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27">
         <v>0</v>
@@ -3895,47 +3952,50 @@
       <c r="X27">
         <v>0</v>
       </c>
-      <c r="Y27" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA27" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB27" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC27" s="17">
-        <v>1</v>
-      </c>
-      <c r="AD27">
-        <v>0</v>
-      </c>
-      <c r="AE27" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF27">
-        <v>0</v>
-      </c>
-      <c r="AG27" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH27">
-        <v>1</v>
-      </c>
-      <c r="AI27" s="12">
-        <v>0</v>
-      </c>
-      <c r="AJ27">
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF27" s="17">
+        <v>1</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="12">
         <v>0</v>
       </c>
       <c r="AK27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL27" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <v>1</v>
+      </c>
+      <c r="AN27" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>49</v>
       </c>
@@ -3949,59 +4009,56 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
       <c r="F28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
-      <c r="I28" s="12">
-        <v>0</v>
-      </c>
-      <c r="J28">
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28" s="12">
         <v>0</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28">
         <v>0</v>
       </c>
-      <c r="N28" s="12">
-        <v>0</v>
-      </c>
-      <c r="O28">
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28" s="12">
         <v>0</v>
       </c>
       <c r="P28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28">
         <v>0</v>
       </c>
-      <c r="S28" s="12">
-        <v>0</v>
-      </c>
-      <c r="T28">
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28" s="12">
         <v>0</v>
       </c>
       <c r="U28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28">
         <v>0</v>
@@ -4009,47 +4066,50 @@
       <c r="X28">
         <v>0</v>
       </c>
-      <c r="Y28" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA28" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB28" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC28" s="17">
-        <v>1</v>
-      </c>
-      <c r="AD28">
-        <v>0</v>
-      </c>
-      <c r="AE28" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF28">
-        <v>0</v>
-      </c>
-      <c r="AG28" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH28">
-        <v>1</v>
-      </c>
-      <c r="AI28" s="12">
-        <v>0</v>
-      </c>
-      <c r="AJ28">
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF28" s="17">
+        <v>1</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="12">
         <v>0</v>
       </c>
       <c r="AK28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM28">
+        <v>1</v>
+      </c>
+      <c r="AN28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>51</v>
       </c>
@@ -4063,59 +4123,56 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
       <c r="F29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
-      <c r="I29" s="12">
-        <v>0</v>
-      </c>
-      <c r="J29">
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29" s="12">
         <v>0</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29">
         <v>0</v>
       </c>
-      <c r="N29" s="12">
-        <v>0</v>
-      </c>
-      <c r="O29">
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29" s="12">
         <v>0</v>
       </c>
       <c r="P29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29">
         <v>0</v>
       </c>
-      <c r="S29" s="12">
-        <v>0</v>
-      </c>
-      <c r="T29">
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29" s="12">
         <v>0</v>
       </c>
       <c r="U29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29">
         <v>0</v>
@@ -4123,47 +4180,50 @@
       <c r="X29">
         <v>0</v>
       </c>
-      <c r="Y29" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA29" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB29" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC29" s="17">
-        <v>1</v>
-      </c>
-      <c r="AD29">
-        <v>0</v>
-      </c>
-      <c r="AE29" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF29">
-        <v>0</v>
-      </c>
-      <c r="AG29" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH29">
-        <v>1</v>
-      </c>
-      <c r="AI29" s="12">
-        <v>0</v>
-      </c>
-      <c r="AJ29">
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF29" s="17">
+        <v>1</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="12">
         <v>0</v>
       </c>
       <c r="AK29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL29" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM29">
+        <v>1</v>
+      </c>
+      <c r="AN29" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>53</v>
       </c>
@@ -4177,9 +4237,6 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
       <c r="F30">
         <v>0</v>
       </c>
@@ -4189,10 +4246,10 @@
       <c r="H30">
         <v>0</v>
       </c>
-      <c r="I30" s="12">
-        <v>0</v>
-      </c>
-      <c r="J30">
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30" s="12">
         <v>0</v>
       </c>
       <c r="K30">
@@ -4204,10 +4261,10 @@
       <c r="M30">
         <v>0</v>
       </c>
-      <c r="N30" s="12">
-        <v>0</v>
-      </c>
-      <c r="O30">
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30" s="12">
         <v>0</v>
       </c>
       <c r="P30">
@@ -4219,10 +4276,10 @@
       <c r="R30">
         <v>0</v>
       </c>
-      <c r="S30" s="12">
-        <v>0</v>
-      </c>
-      <c r="T30">
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30" s="12">
         <v>0</v>
       </c>
       <c r="U30">
@@ -4235,49 +4292,52 @@
         <v>0</v>
       </c>
       <c r="X30">
-        <v>1</v>
-      </c>
-      <c r="Y30" s="12">
-        <v>1</v>
-      </c>
-      <c r="Z30" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="17">
-        <v>1</v>
-      </c>
-      <c r="AD30">
-        <v>0</v>
-      </c>
-      <c r="AE30" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF30">
-        <v>0</v>
-      </c>
-      <c r="AG30" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH30">
-        <v>0</v>
-      </c>
-      <c r="AI30" s="12">
-        <v>0</v>
-      </c>
-      <c r="AJ30">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>1</v>
+      </c>
+      <c r="Z30" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="17">
+        <v>1</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="12">
+        <v>0</v>
       </c>
       <c r="AK30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO30">
+        <v>1</v>
+      </c>
+      <c r="AP30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>55</v>
       </c>
@@ -4291,59 +4351,56 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
       <c r="F31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
-      <c r="I31" s="12">
-        <v>0</v>
-      </c>
-      <c r="J31">
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31" s="12">
         <v>0</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31">
         <v>0</v>
       </c>
-      <c r="N31" s="12">
-        <v>0</v>
-      </c>
-      <c r="O31">
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31" s="12">
         <v>0</v>
       </c>
       <c r="P31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31">
         <v>0</v>
       </c>
-      <c r="S31" s="12">
-        <v>0</v>
-      </c>
-      <c r="T31">
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31" s="12">
         <v>0</v>
       </c>
       <c r="U31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31">
         <v>0</v>
@@ -4351,47 +4408,50 @@
       <c r="X31">
         <v>0</v>
       </c>
-      <c r="Y31" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA31" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB31" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC31" s="17">
-        <v>1</v>
-      </c>
-      <c r="AD31">
-        <v>0</v>
-      </c>
-      <c r="AE31" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF31">
-        <v>0</v>
-      </c>
-      <c r="AG31" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH31">
-        <v>1</v>
-      </c>
-      <c r="AI31" s="12">
-        <v>0</v>
-      </c>
-      <c r="AJ31">
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF31" s="17">
+        <v>1</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="12">
         <v>0</v>
       </c>
       <c r="AK31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM31">
+        <v>1</v>
+      </c>
+      <c r="AN31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO31">
+        <v>0</v>
+      </c>
+      <c r="AP31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>57</v>
       </c>
@@ -4405,107 +4465,107 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
-      <c r="I32" s="12">
-        <v>1</v>
-      </c>
-      <c r="J32">
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32" s="12">
         <v>1</v>
       </c>
       <c r="K32">
         <v>1</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32">
         <v>0</v>
       </c>
-      <c r="N32" s="12">
-        <v>1</v>
-      </c>
-      <c r="O32">
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32" s="12">
         <v>1</v>
       </c>
       <c r="P32">
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32">
         <v>0</v>
       </c>
-      <c r="S32" s="12">
-        <v>1</v>
-      </c>
-      <c r="T32">
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32" s="12">
         <v>1</v>
       </c>
       <c r="U32">
         <v>1</v>
       </c>
       <c r="V32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>1</v>
-      </c>
-      <c r="Y32" s="12">
-        <v>1</v>
-      </c>
-      <c r="Z32" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA32" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB32" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC32" s="17">
-        <v>1</v>
-      </c>
-      <c r="AD32">
-        <v>1</v>
-      </c>
-      <c r="AE32" s="12">
-        <v>1</v>
-      </c>
-      <c r="AF32">
-        <v>1</v>
-      </c>
-      <c r="AG32" s="12">
-        <v>1</v>
-      </c>
-      <c r="AH32">
-        <v>1</v>
-      </c>
-      <c r="AI32" s="12">
-        <v>1</v>
-      </c>
-      <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>1</v>
+      </c>
+      <c r="Z32" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC32" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD32" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE32" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF32" s="17">
+        <v>1</v>
+      </c>
+      <c r="AI32">
+        <v>1</v>
+      </c>
+      <c r="AJ32" s="12">
         <v>1</v>
       </c>
       <c r="AK32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL32" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM32">
+        <v>1</v>
+      </c>
+      <c r="AN32" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO32">
+        <v>1</v>
+      </c>
+      <c r="AP32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>59</v>
       </c>
@@ -4519,52 +4579,49 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
-      <c r="I33" s="12">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>1</v>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33" s="12">
+        <v>0</v>
       </c>
       <c r="K33">
         <v>1</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33">
         <v>0</v>
       </c>
-      <c r="N33" s="12">
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <v>1</v>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33" s="12">
+        <v>0</v>
       </c>
       <c r="P33">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33">
         <v>0</v>
       </c>
-      <c r="S33" s="12">
-        <v>0</v>
-      </c>
-      <c r="T33">
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33" s="12">
         <v>0</v>
       </c>
       <c r="U33">
@@ -4579,47 +4636,50 @@
       <c r="X33">
         <v>0</v>
       </c>
-      <c r="Y33" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA33" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB33" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC33" s="17">
-        <v>0</v>
-      </c>
-      <c r="AD33">
-        <v>1</v>
-      </c>
-      <c r="AE33" s="12">
-        <v>1</v>
-      </c>
-      <c r="AF33">
-        <v>1</v>
-      </c>
-      <c r="AG33" s="12">
-        <v>1</v>
-      </c>
-      <c r="AH33">
-        <v>1</v>
-      </c>
-      <c r="AI33" s="12">
-        <v>1</v>
-      </c>
-      <c r="AJ33">
-        <v>0</v>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD33" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE33" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF33" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>1</v>
+      </c>
+      <c r="AJ33" s="12">
+        <v>1</v>
       </c>
       <c r="AK33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="AL33" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM33">
+        <v>1</v>
+      </c>
+      <c r="AN33" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO33">
+        <v>0</v>
+      </c>
+      <c r="AP33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>61</v>
       </c>
@@ -4633,9 +4693,6 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
       <c r="F34">
         <v>0</v>
       </c>
@@ -4643,12 +4700,12 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="I34" s="12">
-        <v>0</v>
-      </c>
-      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34" s="12">
         <v>0</v>
       </c>
       <c r="K34">
@@ -4658,12 +4715,12 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>1</v>
-      </c>
-      <c r="N34" s="12">
-        <v>0</v>
-      </c>
-      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34" s="12">
         <v>0</v>
       </c>
       <c r="P34">
@@ -4673,12 +4730,12 @@
         <v>0</v>
       </c>
       <c r="R34">
-        <v>1</v>
-      </c>
-      <c r="S34" s="12">
-        <v>0</v>
-      </c>
-      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>1</v>
+      </c>
+      <c r="T34" s="12">
         <v>0</v>
       </c>
       <c r="U34">
@@ -4693,47 +4750,50 @@
       <c r="X34">
         <v>0</v>
       </c>
-      <c r="Y34" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA34" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB34" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC34" s="17">
-        <v>0</v>
-      </c>
-      <c r="AD34">
-        <v>0</v>
-      </c>
-      <c r="AE34" s="12">
-        <v>1</v>
-      </c>
-      <c r="AF34">
-        <v>0</v>
-      </c>
-      <c r="AG34" s="12">
-        <v>1</v>
-      </c>
-      <c r="AH34">
-        <v>0</v>
-      </c>
-      <c r="AI34" s="12">
-        <v>1</v>
-      </c>
-      <c r="AJ34">
-        <v>0</v>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD34" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE34" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF34" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="12">
+        <v>1</v>
       </c>
       <c r="AK34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL34" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AN34" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO34">
+        <v>0</v>
+      </c>
+      <c r="AP34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>63</v>
       </c>
@@ -4747,9 +4807,6 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
       <c r="F35">
         <v>0</v>
       </c>
@@ -4757,12 +4814,12 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>1</v>
-      </c>
-      <c r="I35" s="12">
-        <v>0</v>
-      </c>
-      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35" s="12">
         <v>0</v>
       </c>
       <c r="K35">
@@ -4772,12 +4829,12 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>1</v>
-      </c>
-      <c r="N35" s="12">
-        <v>0</v>
-      </c>
-      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35" s="12">
         <v>0</v>
       </c>
       <c r="P35">
@@ -4787,12 +4844,12 @@
         <v>0</v>
       </c>
       <c r="R35">
-        <v>1</v>
-      </c>
-      <c r="S35" s="12">
-        <v>0</v>
-      </c>
-      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>1</v>
+      </c>
+      <c r="T35" s="12">
         <v>0</v>
       </c>
       <c r="U35">
@@ -4807,47 +4864,50 @@
       <c r="X35">
         <v>0</v>
       </c>
-      <c r="Y35" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA35" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB35" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC35" s="17">
-        <v>0</v>
-      </c>
-      <c r="AD35">
-        <v>0</v>
-      </c>
-      <c r="AE35" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF35">
-        <v>0</v>
-      </c>
-      <c r="AG35" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH35">
-        <v>0</v>
-      </c>
-      <c r="AI35" s="12">
-        <v>0</v>
-      </c>
-      <c r="AJ35">
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF35" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="12">
         <v>0</v>
       </c>
       <c r="AK35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL35" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AN35" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO35">
+        <v>0</v>
+      </c>
+      <c r="AP35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>65</v>
       </c>
@@ -4861,53 +4921,50 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>1</v>
-      </c>
-      <c r="I36" s="12">
-        <v>1</v>
-      </c>
-      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36" s="12">
         <v>1</v>
       </c>
       <c r="K36">
         <v>1</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36">
-        <v>1</v>
-      </c>
-      <c r="N36" s="12">
-        <v>1</v>
-      </c>
-      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36" s="12">
         <v>1</v>
       </c>
       <c r="P36">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36">
-        <v>1</v>
-      </c>
-      <c r="S36" s="12">
-        <v>1</v>
-      </c>
-      <c r="T36">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>1</v>
+      </c>
+      <c r="T36" s="12">
+        <v>1</v>
       </c>
       <c r="U36">
         <v>0</v>
@@ -4921,47 +4978,50 @@
       <c r="X36">
         <v>0</v>
       </c>
-      <c r="Y36" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA36" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB36" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC36" s="17">
-        <v>0</v>
-      </c>
-      <c r="AD36">
-        <v>0</v>
-      </c>
-      <c r="AE36" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF36">
-        <v>0</v>
-      </c>
-      <c r="AG36" s="12">
-        <v>1</v>
-      </c>
-      <c r="AH36">
-        <v>0</v>
-      </c>
-      <c r="AI36" s="12">
-        <v>1</v>
-      </c>
-      <c r="AJ36">
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD36" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE36" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF36" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="12">
         <v>0</v>
       </c>
       <c r="AK36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL36" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM36">
+        <v>0</v>
+      </c>
+      <c r="AN36" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO36">
+        <v>0</v>
+      </c>
+      <c r="AP36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>67</v>
       </c>
@@ -4975,9 +5035,6 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
       <c r="F37">
         <v>0</v>
       </c>
@@ -4985,12 +5042,12 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>1</v>
-      </c>
-      <c r="I37" s="12">
-        <v>0</v>
-      </c>
-      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37" s="12">
         <v>0</v>
       </c>
       <c r="K37">
@@ -5000,12 +5057,12 @@
         <v>0</v>
       </c>
       <c r="M37">
-        <v>1</v>
-      </c>
-      <c r="N37" s="12">
-        <v>0</v>
-      </c>
-      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37" s="12">
         <v>0</v>
       </c>
       <c r="P37">
@@ -5015,12 +5072,12 @@
         <v>0</v>
       </c>
       <c r="R37">
-        <v>1</v>
-      </c>
-      <c r="S37" s="12">
-        <v>0</v>
-      </c>
-      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>1</v>
+      </c>
+      <c r="T37" s="12">
         <v>0</v>
       </c>
       <c r="U37">
@@ -5035,47 +5092,50 @@
       <c r="X37">
         <v>0</v>
       </c>
-      <c r="Y37" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA37" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB37" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC37" s="17">
-        <v>0</v>
-      </c>
-      <c r="AD37">
-        <v>0</v>
-      </c>
-      <c r="AE37" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF37">
-        <v>0</v>
-      </c>
-      <c r="AG37" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH37">
-        <v>1</v>
-      </c>
-      <c r="AI37" s="12">
-        <v>0</v>
-      </c>
-      <c r="AJ37">
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD37" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE37" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF37" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="12">
         <v>0</v>
       </c>
       <c r="AK37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL37" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM37">
+        <v>1</v>
+      </c>
+      <c r="AN37" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO37">
+        <v>0</v>
+      </c>
+      <c r="AP37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>69</v>
       </c>
@@ -5089,59 +5149,56 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
       <c r="F38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
-      <c r="I38" s="12">
-        <v>0</v>
-      </c>
-      <c r="J38">
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38" s="12">
         <v>0</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38">
         <v>0</v>
       </c>
-      <c r="N38" s="12">
-        <v>0</v>
-      </c>
-      <c r="O38">
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38" s="12">
         <v>0</v>
       </c>
       <c r="P38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38">
         <v>0</v>
       </c>
-      <c r="S38" s="12">
-        <v>0</v>
-      </c>
-      <c r="T38">
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38" s="12">
         <v>0</v>
       </c>
       <c r="U38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W38">
         <v>0</v>
@@ -5149,47 +5206,50 @@
       <c r="X38">
         <v>0</v>
       </c>
-      <c r="Y38" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA38" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB38" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC38" s="17">
-        <v>1</v>
-      </c>
-      <c r="AD38">
-        <v>0</v>
-      </c>
-      <c r="AE38" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF38">
-        <v>0</v>
-      </c>
-      <c r="AG38" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH38">
-        <v>1</v>
-      </c>
-      <c r="AI38" s="12">
-        <v>0</v>
-      </c>
-      <c r="AJ38">
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD38" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE38" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF38" s="17">
+        <v>1</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
+      </c>
+      <c r="AJ38" s="12">
         <v>0</v>
       </c>
       <c r="AK38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL38" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM38">
+        <v>1</v>
+      </c>
+      <c r="AN38" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO38">
+        <v>0</v>
+      </c>
+      <c r="AP38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>71</v>
       </c>
@@ -5203,9 +5263,6 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
       <c r="F39">
         <v>0</v>
       </c>
@@ -5215,10 +5272,10 @@
       <c r="H39">
         <v>0</v>
       </c>
-      <c r="I39" s="12">
-        <v>0</v>
-      </c>
-      <c r="J39">
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39" s="12">
         <v>0</v>
       </c>
       <c r="K39">
@@ -5228,12 +5285,12 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>1</v>
-      </c>
-      <c r="N39" s="12">
-        <v>0</v>
-      </c>
-      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39" s="12">
         <v>0</v>
       </c>
       <c r="P39">
@@ -5243,12 +5300,12 @@
         <v>0</v>
       </c>
       <c r="R39">
-        <v>1</v>
-      </c>
-      <c r="S39" s="12">
-        <v>0</v>
-      </c>
-      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>1</v>
+      </c>
+      <c r="T39" s="12">
         <v>0</v>
       </c>
       <c r="U39">
@@ -5263,47 +5320,50 @@
       <c r="X39">
         <v>0</v>
       </c>
-      <c r="Y39" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB39" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC39" s="17">
-        <v>0</v>
-      </c>
-      <c r="AD39">
-        <v>0</v>
-      </c>
-      <c r="AE39" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF39">
-        <v>0</v>
-      </c>
-      <c r="AG39" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH39">
-        <v>0</v>
-      </c>
-      <c r="AI39" s="12">
-        <v>0</v>
-      </c>
-      <c r="AJ39">
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF39" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
+      </c>
+      <c r="AJ39" s="12">
         <v>0</v>
       </c>
       <c r="AK39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL39" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM39">
+        <v>0</v>
+      </c>
+      <c r="AN39" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO39">
+        <v>0</v>
+      </c>
+      <c r="AP39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>73</v>
       </c>
@@ -5317,59 +5377,56 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
       <c r="F40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
-      <c r="I40" s="12">
-        <v>0</v>
-      </c>
-      <c r="J40">
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40" s="12">
         <v>0</v>
       </c>
       <c r="K40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40">
         <v>0</v>
       </c>
-      <c r="N40" s="12">
-        <v>0</v>
-      </c>
-      <c r="O40">
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40" s="12">
         <v>0</v>
       </c>
       <c r="P40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40">
         <v>0</v>
       </c>
-      <c r="S40" s="12">
-        <v>0</v>
-      </c>
-      <c r="T40">
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40" s="12">
         <v>0</v>
       </c>
       <c r="U40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W40">
         <v>0</v>
@@ -5377,47 +5434,50 @@
       <c r="X40">
         <v>0</v>
       </c>
-      <c r="Y40" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA40" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB40" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC40" s="17">
-        <v>1</v>
-      </c>
-      <c r="AD40">
-        <v>0</v>
-      </c>
-      <c r="AE40" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF40">
-        <v>0</v>
-      </c>
-      <c r="AG40" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH40">
-        <v>1</v>
-      </c>
-      <c r="AI40" s="12">
-        <v>0</v>
-      </c>
-      <c r="AJ40">
+      <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF40" s="17">
+        <v>1</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
+      </c>
+      <c r="AJ40" s="12">
         <v>0</v>
       </c>
       <c r="AK40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL40" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM40">
+        <v>1</v>
+      </c>
+      <c r="AN40" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO40">
+        <v>0</v>
+      </c>
+      <c r="AP40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>75</v>
       </c>
@@ -5431,9 +5491,6 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
       <c r="F41">
         <v>0</v>
       </c>
@@ -5443,11 +5500,11 @@
       <c r="H41">
         <v>0</v>
       </c>
-      <c r="I41" s="12">
-        <v>1</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41" s="12">
+        <v>1</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -5458,11 +5515,11 @@
       <c r="M41">
         <v>0</v>
       </c>
-      <c r="N41" s="12">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41" s="12">
+        <v>1</v>
       </c>
       <c r="P41">
         <v>0</v>
@@ -5473,11 +5530,11 @@
       <c r="R41">
         <v>0</v>
       </c>
-      <c r="S41" s="12">
-        <v>1</v>
-      </c>
-      <c r="T41">
-        <v>0</v>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41" s="12">
+        <v>1</v>
       </c>
       <c r="U41">
         <v>0</v>
@@ -5489,49 +5546,52 @@
         <v>0</v>
       </c>
       <c r="X41">
-        <v>1</v>
-      </c>
-      <c r="Y41" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA41" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB41" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC41" s="17">
-        <v>1</v>
-      </c>
-      <c r="AD41">
-        <v>0</v>
-      </c>
-      <c r="AE41" s="12">
-        <v>1</v>
-      </c>
-      <c r="AF41">
-        <v>0</v>
-      </c>
-      <c r="AG41" s="12">
-        <v>1</v>
-      </c>
-      <c r="AH41">
-        <v>0</v>
-      </c>
-      <c r="AI41" s="12">
-        <v>1</v>
-      </c>
-      <c r="AJ41">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>1</v>
+      </c>
+      <c r="Z41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF41" s="17">
+        <v>1</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
+      </c>
+      <c r="AJ41" s="12">
+        <v>1</v>
       </c>
       <c r="AK41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AL41" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM41">
+        <v>0</v>
+      </c>
+      <c r="AN41" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO41">
+        <v>0</v>
+      </c>
+      <c r="AP41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>77</v>
       </c>
@@ -5545,107 +5605,107 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
       <c r="F42">
         <v>1</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
         <v>0</v>
       </c>
-      <c r="I42" s="12">
-        <v>1</v>
-      </c>
-      <c r="J42">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42" s="12">
         <v>1</v>
       </c>
       <c r="K42">
         <v>1</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42">
         <v>0</v>
       </c>
-      <c r="N42" s="12">
-        <v>1</v>
-      </c>
-      <c r="O42">
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42" s="12">
         <v>1</v>
       </c>
       <c r="P42">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42">
         <v>0</v>
       </c>
-      <c r="S42" s="12">
-        <v>1</v>
-      </c>
-      <c r="T42">
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42" s="12">
         <v>1</v>
       </c>
       <c r="U42">
         <v>1</v>
       </c>
       <c r="V42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W42">
         <v>0</v>
       </c>
       <c r="X42">
-        <v>1</v>
-      </c>
-      <c r="Y42" s="12">
-        <v>1</v>
-      </c>
-      <c r="Z42" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA42" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB42" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC42" s="17">
-        <v>1</v>
-      </c>
-      <c r="AD42">
-        <v>0</v>
-      </c>
-      <c r="AE42" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF42">
-        <v>0</v>
-      </c>
-      <c r="AG42" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH42">
-        <v>0</v>
-      </c>
-      <c r="AI42" s="12">
-        <v>1</v>
-      </c>
-      <c r="AJ42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>1</v>
+      </c>
+      <c r="Z42" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF42" s="17">
+        <v>1</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
+      </c>
+      <c r="AJ42" s="12">
         <v>0</v>
       </c>
       <c r="AK42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AL42" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM42">
+        <v>0</v>
+      </c>
+      <c r="AN42" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO42">
+        <v>0</v>
+      </c>
+      <c r="AP42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>79</v>
       </c>
@@ -5659,9 +5719,6 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
       <c r="F43">
         <v>0</v>
       </c>
@@ -5671,10 +5728,10 @@
       <c r="H43">
         <v>0</v>
       </c>
-      <c r="I43" s="12">
-        <v>0</v>
-      </c>
-      <c r="J43">
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43" s="12">
         <v>0</v>
       </c>
       <c r="K43">
@@ -5684,12 +5741,12 @@
         <v>0</v>
       </c>
       <c r="M43">
-        <v>1</v>
-      </c>
-      <c r="N43" s="12">
-        <v>0</v>
-      </c>
-      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43" s="12">
         <v>0</v>
       </c>
       <c r="P43">
@@ -5701,10 +5758,10 @@
       <c r="R43">
         <v>0</v>
       </c>
-      <c r="S43" s="12">
-        <v>0</v>
-      </c>
-      <c r="T43">
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43" s="12">
         <v>0</v>
       </c>
       <c r="U43">
@@ -5714,52 +5771,55 @@
         <v>0</v>
       </c>
       <c r="W43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X43">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA43" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB43" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC43" s="17">
-        <v>1</v>
-      </c>
-      <c r="AD43">
-        <v>0</v>
-      </c>
-      <c r="AE43" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF43">
-        <v>0</v>
-      </c>
-      <c r="AG43" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH43">
-        <v>0</v>
-      </c>
-      <c r="AI43" s="12">
-        <v>0</v>
-      </c>
-      <c r="AJ43">
+        <v>1</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="17">
+        <v>1</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
+      </c>
+      <c r="AJ43" s="12">
         <v>0</v>
       </c>
       <c r="AK43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AL43" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM43">
+        <v>0</v>
+      </c>
+      <c r="AN43" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO43">
+        <v>0</v>
+      </c>
+      <c r="AP43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>81</v>
       </c>
@@ -5773,9 +5833,6 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
       <c r="F44">
         <v>0</v>
       </c>
@@ -5785,11 +5842,11 @@
       <c r="H44">
         <v>0</v>
       </c>
-      <c r="I44" s="12">
-        <v>1</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44" s="12">
+        <v>1</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -5800,11 +5857,11 @@
       <c r="M44">
         <v>0</v>
       </c>
-      <c r="N44" s="12">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44" s="12">
+        <v>1</v>
       </c>
       <c r="P44">
         <v>0</v>
@@ -5815,11 +5872,11 @@
       <c r="R44">
         <v>0</v>
       </c>
-      <c r="S44" s="12">
-        <v>1</v>
-      </c>
-      <c r="T44">
-        <v>0</v>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44" s="12">
+        <v>1</v>
       </c>
       <c r="U44">
         <v>0</v>
@@ -5831,49 +5888,52 @@
         <v>0</v>
       </c>
       <c r="X44">
-        <v>1</v>
-      </c>
-      <c r="Y44" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z44" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA44" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB44" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC44" s="17">
-        <v>1</v>
-      </c>
-      <c r="AD44">
-        <v>0</v>
-      </c>
-      <c r="AE44" s="12">
-        <v>1</v>
-      </c>
-      <c r="AF44">
-        <v>0</v>
-      </c>
-      <c r="AG44" s="12">
-        <v>1</v>
-      </c>
-      <c r="AH44">
-        <v>0</v>
-      </c>
-      <c r="AI44" s="12">
-        <v>1</v>
-      </c>
-      <c r="AJ44">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>1</v>
+      </c>
+      <c r="Z44" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF44" s="17">
+        <v>1</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
+      </c>
+      <c r="AJ44" s="12">
+        <v>1</v>
       </c>
       <c r="AK44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL44" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM44">
+        <v>0</v>
+      </c>
+      <c r="AN44" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO44">
+        <v>0</v>
+      </c>
+      <c r="AP44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>83</v>
       </c>
@@ -5887,59 +5947,56 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
       <c r="F45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45">
         <v>0</v>
       </c>
-      <c r="I45" s="12">
-        <v>0</v>
-      </c>
-      <c r="J45">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45" s="12">
         <v>0</v>
       </c>
       <c r="K45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45">
         <v>0</v>
       </c>
-      <c r="N45" s="12">
-        <v>0</v>
-      </c>
-      <c r="O45">
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45" s="12">
         <v>0</v>
       </c>
       <c r="P45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R45">
         <v>0</v>
       </c>
-      <c r="S45" s="12">
-        <v>0</v>
-      </c>
-      <c r="T45">
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45" s="12">
         <v>0</v>
       </c>
       <c r="U45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W45">
         <v>0</v>
@@ -5947,47 +6004,50 @@
       <c r="X45">
         <v>0</v>
       </c>
-      <c r="Y45" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA45" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB45" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC45" s="17">
-        <v>1</v>
-      </c>
-      <c r="AD45">
-        <v>0</v>
-      </c>
-      <c r="AE45" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF45">
-        <v>0</v>
-      </c>
-      <c r="AG45" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH45">
-        <v>1</v>
-      </c>
-      <c r="AI45" s="12">
-        <v>0</v>
-      </c>
-      <c r="AJ45">
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF45" s="17">
+        <v>1</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
+      </c>
+      <c r="AJ45" s="12">
         <v>0</v>
       </c>
       <c r="AK45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL45" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM45">
+        <v>1</v>
+      </c>
+      <c r="AN45" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO45">
+        <v>0</v>
+      </c>
+      <c r="AP45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>85</v>
       </c>
@@ -6001,9 +6061,6 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
       <c r="F46">
         <v>1</v>
       </c>
@@ -6013,11 +6070,11 @@
       <c r="H46">
         <v>1</v>
       </c>
-      <c r="I46" s="12">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>1</v>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46" s="12">
+        <v>0</v>
       </c>
       <c r="K46">
         <v>1</v>
@@ -6028,11 +6085,11 @@
       <c r="M46">
         <v>1</v>
       </c>
-      <c r="N46" s="12">
-        <v>0</v>
-      </c>
-      <c r="O46">
-        <v>1</v>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46" s="12">
+        <v>0</v>
       </c>
       <c r="P46">
         <v>1</v>
@@ -6043,10 +6100,10 @@
       <c r="R46">
         <v>1</v>
       </c>
-      <c r="S46" s="12">
-        <v>0</v>
-      </c>
-      <c r="T46">
+      <c r="S46">
+        <v>1</v>
+      </c>
+      <c r="T46" s="12">
         <v>0</v>
       </c>
       <c r="U46">
@@ -6061,47 +6118,50 @@
       <c r="X46">
         <v>0</v>
       </c>
-      <c r="Y46" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z46" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA46" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB46" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC46" s="17">
-        <v>0</v>
-      </c>
-      <c r="AD46">
-        <v>1</v>
-      </c>
-      <c r="AE46" s="12">
-        <v>1</v>
-      </c>
-      <c r="AF46">
-        <v>1</v>
-      </c>
-      <c r="AG46" s="12">
-        <v>1</v>
-      </c>
-      <c r="AH46">
-        <v>1</v>
-      </c>
-      <c r="AI46" s="12">
-        <v>1</v>
-      </c>
-      <c r="AJ46">
-        <v>0</v>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD46" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE46" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF46" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>1</v>
+      </c>
+      <c r="AJ46" s="12">
+        <v>1</v>
       </c>
       <c r="AK46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="AL46" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM46">
+        <v>1</v>
+      </c>
+      <c r="AN46" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO46">
+        <v>0</v>
+      </c>
+      <c r="AP46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>87</v>
       </c>
@@ -6115,9 +6175,6 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
       <c r="F47">
         <v>0</v>
       </c>
@@ -6127,14 +6184,14 @@
       <c r="H47">
         <v>0</v>
       </c>
-      <c r="I47" s="12">
-        <v>0</v>
-      </c>
-      <c r="J47">
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47" s="12">
         <v>0</v>
       </c>
       <c r="K47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47">
         <v>1</v>
@@ -6142,14 +6199,14 @@
       <c r="M47">
         <v>1</v>
       </c>
-      <c r="N47" s="12">
-        <v>0</v>
-      </c>
-      <c r="O47">
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47" s="12">
         <v>0</v>
       </c>
       <c r="P47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
         <v>1</v>
@@ -6157,10 +6214,10 @@
       <c r="R47">
         <v>1</v>
       </c>
-      <c r="S47" s="12">
-        <v>0</v>
-      </c>
-      <c r="T47">
+      <c r="S47">
+        <v>1</v>
+      </c>
+      <c r="T47" s="12">
         <v>0</v>
       </c>
       <c r="U47">
@@ -6175,59 +6232,62 @@
       <c r="X47">
         <v>0</v>
       </c>
-      <c r="Y47" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z47" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA47" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB47" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC47" s="17">
-        <v>0</v>
-      </c>
-      <c r="AD47">
-        <v>0</v>
-      </c>
-      <c r="AE47" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF47">
-        <v>1</v>
-      </c>
-      <c r="AG47" s="12">
-        <v>1</v>
-      </c>
-      <c r="AH47">
-        <v>1</v>
-      </c>
-      <c r="AI47" s="12">
-        <v>1</v>
-      </c>
-      <c r="AJ47">
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF47" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
+      </c>
+      <c r="AJ47" s="12">
         <v>0</v>
       </c>
       <c r="AK47">
+        <v>1</v>
+      </c>
+      <c r="AL47" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM47">
+        <v>1</v>
+      </c>
+      <c r="AN47" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO47">
+        <v>0</v>
+      </c>
+      <c r="AP47">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="AD1:AK1"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="E1:Y1"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="J2:N2"/>
-    <mergeCell ref="O2:S2"/>
-    <mergeCell ref="T2:Y2"/>
+    <mergeCell ref="F1:Z1"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="U2:Z2"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AI1:AP1"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AO2:AP2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
